--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1883985.711168793</v>
+        <v>-1886573.22237437</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.0904450475561</v>
+        <v>148.9039215383476</v>
       </c>
       <c r="H2" t="n">
-        <v>296.3356618821742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48.08148421406815</v>
+        <v>48.08148421406804</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>113.0324549812898</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.6565392873045</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0086695104302</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.17547838764116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.089742000015</v>
       </c>
       <c r="H3" t="n">
-        <v>90.46872094984359</v>
+        <v>90.46872094984357</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79954938173974</v>
+        <v>11.79954938173969</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4181804147418</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1014899708501</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339734</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.62837588899009</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>92.33507763978301</v>
       </c>
       <c r="S4" t="n">
         <v>191.0879511638283</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>93.30563794524238</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>189.2133623690049</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>311.3136314573308</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>4.369074058309828</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>167.3110180832221</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,10 +1114,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>177.5803145505252</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>15.35878584647173</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1342,22 +1342,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>183.4187777063746</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.2832819554699</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="12">
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>41.02686156550178</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012207</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>71.56327578339662</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.16281301712655</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053468</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>65.44930784064623</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>79.9081607862897</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>10.58364443467411</v>
+        <v>81.13054509253624</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,10 +2482,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>44.3029228075758</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,16 +2530,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>146.7151441592116</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703267</v>
+        <v>99.974274198339</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969968</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808124</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2349.539011300818</v>
+        <v>1785.37518767316</v>
       </c>
       <c r="C2" t="n">
-        <v>1980.576494360407</v>
+        <v>1416.412670732748</v>
       </c>
       <c r="D2" t="n">
-        <v>1622.310795753656</v>
+        <v>1058.146972125997</v>
       </c>
       <c r="E2" t="n">
-        <v>1236.522543155412</v>
+        <v>672.358719527753</v>
       </c>
       <c r="F2" t="n">
-        <v>825.5366383658043</v>
+        <v>261.3728147381454</v>
       </c>
       <c r="G2" t="n">
-        <v>410.2937645803941</v>
+        <v>110.9648131842587</v>
       </c>
       <c r="H2" t="n">
-        <v>110.9648131842586</v>
+        <v>110.9648131842587</v>
       </c>
       <c r="I2" t="n">
-        <v>62.39765741247275</v>
+        <v>62.39765741247277</v>
       </c>
       <c r="J2" t="n">
-        <v>237.1001391730315</v>
+        <v>237.1001391730313</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315694</v>
+        <v>549.6723906315697</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529735</v>
+        <v>974.3476699529745</v>
       </c>
       <c r="M2" t="n">
-        <v>1478.550181808269</v>
+        <v>1478.550181808271</v>
       </c>
       <c r="N2" t="n">
-        <v>1995.525025811714</v>
+        <v>1995.525025811715</v>
       </c>
       <c r="O2" t="n">
-        <v>2470.35445007607</v>
+        <v>2470.354450076072</v>
       </c>
       <c r="P2" t="n">
-        <v>2841.109377259757</v>
+        <v>2841.109377259759</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.358140510237</v>
+        <v>3071.358140510239</v>
       </c>
       <c r="R2" t="n">
-        <v>3119.882870623638</v>
+        <v>3119.882870623639</v>
       </c>
       <c r="S2" t="n">
-        <v>3119.882870623638</v>
+        <v>3005.708673672841</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.882870623638</v>
+        <v>2798.984896614958</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.882870623638</v>
+        <v>2545.440785998361</v>
       </c>
       <c r="V2" t="n">
-        <v>3119.882870623638</v>
+        <v>2545.440785998361</v>
       </c>
       <c r="W2" t="n">
-        <v>3119.882870623638</v>
+        <v>2545.440785998361</v>
       </c>
       <c r="X2" t="n">
-        <v>2746.417112362558</v>
+        <v>2171.975027737281</v>
       </c>
       <c r="Y2" t="n">
-        <v>2736.13885136494</v>
+        <v>2171.975027737281</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3126773451371</v>
+        <v>1494.450283274069</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8596480640101</v>
+        <v>1319.997253992942</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9252384027589</v>
+        <v>1171.06284433169</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6877833973033</v>
+        <v>1011.825389326235</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1532254241882</v>
+        <v>865.2908313531196</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6989405756882</v>
+        <v>728.8365465046197</v>
       </c>
       <c r="H3" t="n">
-        <v>74.31639416170481</v>
+        <v>637.4540000906363</v>
       </c>
       <c r="I3" t="n">
-        <v>62.39765741247275</v>
+        <v>625.5352633414043</v>
       </c>
       <c r="J3" t="n">
-        <v>147.6314117602528</v>
+        <v>710.7690176891845</v>
       </c>
       <c r="K3" t="n">
-        <v>371.464298498186</v>
+        <v>1068.312822670917</v>
       </c>
       <c r="L3" t="n">
-        <v>718.7577785663799</v>
+        <v>1415.606302739111</v>
       </c>
       <c r="M3" t="n">
-        <v>1143.389757203036</v>
+        <v>1840.238281375767</v>
       </c>
       <c r="N3" t="n">
-        <v>1593.669125698063</v>
+        <v>2290.517649870795</v>
       </c>
       <c r="O3" t="n">
-        <v>1983.366983457259</v>
+        <v>2680.215507629991</v>
       </c>
       <c r="P3" t="n">
-        <v>2276.800804435759</v>
+        <v>2973.649328608492</v>
       </c>
       <c r="Q3" t="n">
-        <v>2556.745264694707</v>
+        <v>3119.882870623639</v>
       </c>
       <c r="R3" t="n">
-        <v>2556.745264694707</v>
+        <v>3119.882870623639</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.6136627297</v>
+        <v>2988.751268658631</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.603124153399</v>
+        <v>2795.740730082331</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.529278295636</v>
+        <v>2567.666884224568</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.377170063893</v>
+        <v>2332.514775992825</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.139813335692</v>
+        <v>2078.277419264623</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.288313130159</v>
+        <v>1870.425919059091</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.528014365205</v>
+        <v>1662.665620294137</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2066.731845045657</v>
+        <v>1778.295038953606</v>
       </c>
       <c r="C4" t="n">
-        <v>1897.79566211775</v>
+        <v>1778.295038953606</v>
       </c>
       <c r="D4" t="n">
-        <v>1747.679022705414</v>
+        <v>1628.17839954127</v>
       </c>
       <c r="E4" t="n">
-        <v>1747.679022705414</v>
+        <v>1480.265305958877</v>
       </c>
       <c r="F4" t="n">
-        <v>1747.679022705414</v>
+        <v>1333.378255034895</v>
       </c>
       <c r="G4" t="n">
-        <v>1579.899739906576</v>
+        <v>1333.378255034895</v>
       </c>
       <c r="H4" t="n">
-        <v>1433.002877144987</v>
+        <v>1333.378255034895</v>
       </c>
       <c r="I4" t="n">
-        <v>1333.378255034896</v>
+        <v>1333.378255034895</v>
       </c>
       <c r="J4" t="n">
         <v>1373.203697426283</v>
@@ -4492,46 +4492,46 @@
         <v>1568.485969881409</v>
       </c>
       <c r="L4" t="n">
-        <v>1873.906479893692</v>
+        <v>1873.906479893693</v>
       </c>
       <c r="M4" t="n">
-        <v>2206.318707680742</v>
+        <v>2206.318707680743</v>
       </c>
       <c r="N4" t="n">
-        <v>2536.26153209073</v>
+        <v>2536.261532090731</v>
       </c>
       <c r="O4" t="n">
-        <v>2825.000837712487</v>
+        <v>2825.000837712488</v>
       </c>
       <c r="P4" t="n">
-        <v>3048.546512699444</v>
+        <v>3048.546512699445</v>
       </c>
       <c r="Q4" t="n">
-        <v>3119.882870623638</v>
+        <v>3119.882870623639</v>
       </c>
       <c r="R4" t="n">
-        <v>3119.882870623638</v>
+        <v>3026.615115431938</v>
       </c>
       <c r="S4" t="n">
-        <v>2926.864738134922</v>
+        <v>2833.596982943223</v>
       </c>
       <c r="T4" t="n">
-        <v>2704.771489053794</v>
+        <v>2611.503733862095</v>
       </c>
       <c r="U4" t="n">
-        <v>2415.664452388152</v>
+        <v>2322.396697196453</v>
       </c>
       <c r="V4" t="n">
-        <v>2160.979964182266</v>
+        <v>2067.712208990567</v>
       </c>
       <c r="W4" t="n">
-        <v>2066.731845045657</v>
+        <v>1778.295038953606</v>
       </c>
       <c r="X4" t="n">
-        <v>2066.731845045657</v>
+        <v>1778.295038953606</v>
       </c>
       <c r="Y4" t="n">
-        <v>2066.731845045657</v>
+        <v>1778.295038953606</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1458.811090838972</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>1089.848573898561</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="D5" t="n">
-        <v>731.5828752918103</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E5" t="n">
-        <v>731.5828752918103</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.7846764101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.7846764101</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139986</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2235.550262878906</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>1845.410930903094</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.5487792519424</v>
+        <v>555.4774356872693</v>
       </c>
       <c r="C7" t="n">
-        <v>530.5487792519424</v>
+        <v>386.5412527593625</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396066</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1476.777178305956</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1187.674311431599</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>932.9898232257123</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W7" t="n">
-        <v>932.9898232257123</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X7" t="n">
-        <v>932.9898232257123</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y7" t="n">
-        <v>712.1972440821821</v>
+        <v>555.4774356872693</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.509627919559</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1698.509627919559</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1340.243929312809</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>954.4556767145643</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>543.4697719249568</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3310.091896511724</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3104.114148895947</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3104.114148895947</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919559</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.6774975139006</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4990,22 +4990,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278958</v>
+        <v>1261.234304408261</v>
       </c>
       <c r="W10" t="n">
-        <v>1259.157560278958</v>
+        <v>1261.234304408261</v>
       </c>
       <c r="X10" t="n">
-        <v>1259.157560278958</v>
+        <v>1033.244753510244</v>
       </c>
       <c r="Y10" t="n">
-        <v>1104.32596234414</v>
+        <v>812.4521743667135</v>
       </c>
     </row>
     <row r="11">
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>916.3099000622258</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>747.3737171343189</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>597.257077721983</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>449.34398413959</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>302.4540366416796</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>135.2579373565595</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>135.2579373565595</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.84215317686</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970973</v>
       </c>
       <c r="W13" t="n">
-        <v>1361.415228493873</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X13" t="n">
-        <v>1133.425677595856</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>1097.958364892465</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.7012443408906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5504,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832228</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429801</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429801</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429802</v>
@@ -5665,16 +5665,16 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797744</v>
@@ -5683,10 +5683,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2380.852671620012</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.997837274916</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1978.396372297858</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134625</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
         <v>2129.438138565707</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>961.4446166151475</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C22" t="n">
-        <v>792.5084336872407</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="D22" t="n">
-        <v>642.3917942749049</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888048</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908944</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782961</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>1143.093081445387</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>996.5276398439754</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>827.5914569160685</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>677.4748175037328</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>529.5617239213396</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>1398.968683817745</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>1178.176104674215</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,22 +6306,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121644</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121644</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121644</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6464,16 +6464,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6619,19 +6619,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O31" t="n">
         <v>2179.340199382518</v>
@@ -6649,7 +6649,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838285</v>
@@ -6658,10 +6658,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6783,22 +6783,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,31 +6877,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,31 +7114,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7254,16 +7254,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7318,25 +7318,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954156</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G43" t="n">
         <v>268.555303634547</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7603,16 +7603,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7786,16 +7786,16 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7810,7 +7810,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>135.0615335795947</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>135.0615335795969</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.747744270113714</v>
+        <v>5.747744270113628</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>262.1865235092085</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>296.3356618821741</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>113.0324549812898</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.6565392873045</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0086695104302</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>376.0624602684125</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22705,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0.002867608189433213</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.4278941339733</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.62837588899006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978307</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>193.2173603913486</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>40.23897475306376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016491</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>214.9597225531944</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>116.6691671648107</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194146</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9259388694754591</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>172.2294825375383</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>135.8503182118951</v>
+        <v>65.30341755403293</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>101.1181252153554</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194214</v>
+        <v>65.54986409392981</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>6.110667527536862e-13</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.460698725481052e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82889.17417537619</v>
+        <v>82889.17417537626</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26323,16 +26323,16 @@
         <v>100893.3249612508</v>
       </c>
       <c r="F2" t="n">
+        <v>100893.3249612507</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100893.3249612507</v>
+      </c>
+      <c r="H2" t="n">
         <v>100893.3249612508</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>100893.3249612508</v>
-      </c>
-      <c r="H2" t="n">
-        <v>100893.3249612507</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100893.3249612507</v>
       </c>
       <c r="J2" t="n">
         <v>100893.3249612507</v>
@@ -26344,13 +26344,13 @@
         <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1271067.29747634</v>
+        <v>1271067.297476341</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023797</v>
+        <v>54832.77288023767</v>
       </c>
       <c r="D3" t="n">
-        <v>1.412581696058623e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204074.6584503627</v>
+        <v>204074.6584503629</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.3441059428</v>
+        <v>32664.34410594286</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551188</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363174</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14452.78963551402</v>
+        <v>14452.78963551398</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815721</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
@@ -26433,7 +26433,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26442,7 +26442,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>19767.83547989931</v>
+        <v>19767.8354798993</v>
       </c>
       <c r="L4" t="n">
         <v>19767.8354798993</v>
@@ -26451,10 +26451,10 @@
         <v>19767.8354798993</v>
       </c>
       <c r="N4" t="n">
+        <v>19767.83547989929</v>
+      </c>
+      <c r="O4" t="n">
         <v>19767.83547989928</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19767.8354798993</v>
       </c>
       <c r="P4" t="n">
         <v>19767.83547989929</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1306522.941548521</v>
+        <v>-1306917.762489675</v>
       </c>
       <c r="C6" t="n">
-        <v>-151100.5031967531</v>
+        <v>-151100.5031967527</v>
       </c>
       <c r="D6" t="n">
-        <v>-96267.73031651515</v>
+        <v>-96267.73031651504</v>
       </c>
       <c r="E6" t="n">
-        <v>-337418.6428868173</v>
+        <v>-337453.380812253</v>
       </c>
       <c r="F6" t="n">
-        <v>-12006.18107946214</v>
+        <v>-12040.91900489788</v>
       </c>
       <c r="G6" t="n">
-        <v>-12006.18107946216</v>
+        <v>-12040.91900489788</v>
       </c>
       <c r="H6" t="n">
-        <v>-12006.18107946223</v>
+        <v>-12040.91900489785</v>
       </c>
       <c r="I6" t="n">
-        <v>-12006.18107946219</v>
+        <v>-12040.91900489786</v>
       </c>
       <c r="J6" t="n">
-        <v>-216080.8395298249</v>
+        <v>-216115.5774552608</v>
       </c>
       <c r="K6" t="n">
-        <v>-52966.07420672204</v>
+        <v>-52966.07420672208</v>
       </c>
       <c r="L6" t="n">
-        <v>-20301.73010077934</v>
+        <v>-20301.73010077921</v>
       </c>
       <c r="M6" t="n">
         <v>-105356.7580362911</v>
       </c>
       <c r="N6" t="n">
-        <v>-20301.73010077918</v>
+        <v>-20301.73010077921</v>
       </c>
       <c r="O6" t="n">
         <v>-20301.73010077924</v>
       </c>
       <c r="P6" t="n">
-        <v>-39729.44809441103</v>
+        <v>-39729.44809441097</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="K2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203976</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203972</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559094</v>
+        <v>779.9707176559097</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.973799150320701e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="3">
@@ -26960,7 +26960,7 @@
         <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
-        <v>41.96894928303254</v>
+        <v>41.96894928303209</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559094</v>
+        <v>779.9707176559097</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638276</v>
+        <v>51.4307377463831</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973557</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559093</v>
+        <v>779.9707176559098</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638276</v>
+        <v>51.4307377463831</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559094</v>
+        <v>779.9707176559097</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638276</v>
+        <v>51.4307377463831</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>165.4696792516781</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>95.56241428438068</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>144.2463989599025</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>52.23793119294714</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>233.3414111029282</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>93.8289759417041</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>68.71886561745336</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>65.30137139662489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-9.831888791845542e-13</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.285372470912988e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29524,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.212292467578954</v>
+        <v>4.212292467578957</v>
       </c>
       <c r="H2" t="n">
-        <v>43.13914023359297</v>
+        <v>43.139140233593</v>
       </c>
       <c r="I2" t="n">
-        <v>162.3944053563378</v>
+        <v>162.3944053563379</v>
       </c>
       <c r="J2" t="n">
-        <v>357.5130578201795</v>
+        <v>357.5130578201798</v>
       </c>
       <c r="K2" t="n">
-        <v>535.8193979727968</v>
+        <v>535.8193979727971</v>
       </c>
       <c r="L2" t="n">
-        <v>664.7313435774663</v>
+        <v>664.7313435774668</v>
       </c>
       <c r="M2" t="n">
-        <v>739.6416997477735</v>
+        <v>739.6416997477739</v>
       </c>
       <c r="N2" t="n">
-        <v>751.6098757212823</v>
+        <v>751.6098757212827</v>
       </c>
       <c r="O2" t="n">
-        <v>709.723892496794</v>
+        <v>709.7238924967944</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7329222034385</v>
+        <v>605.7329222034389</v>
       </c>
       <c r="Q2" t="n">
-        <v>454.8801982082671</v>
+        <v>454.8801982082674</v>
       </c>
       <c r="R2" t="n">
-        <v>264.6004167165567</v>
+        <v>264.6004167165569</v>
       </c>
       <c r="S2" t="n">
-        <v>95.98761460495551</v>
+        <v>95.98761460495557</v>
       </c>
       <c r="T2" t="n">
-        <v>18.43931027682688</v>
+        <v>18.43931027682689</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3369833974063162</v>
+        <v>0.3369833974063164</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.253775163195666</v>
+        <v>2.253775163195667</v>
       </c>
       <c r="H3" t="n">
-        <v>21.76672328665288</v>
+        <v>21.76672328665289</v>
       </c>
       <c r="I3" t="n">
-        <v>77.59708346967534</v>
+        <v>77.59708346967538</v>
       </c>
       <c r="J3" t="n">
-        <v>212.9323280280607</v>
+        <v>212.9323280280608</v>
       </c>
       <c r="K3" t="n">
-        <v>363.9352639621703</v>
+        <v>363.9352639621705</v>
       </c>
       <c r="L3" t="n">
-        <v>489.3558747982519</v>
+        <v>489.3558747982522</v>
       </c>
       <c r="M3" t="n">
-        <v>571.0552244640946</v>
+        <v>571.055224464095</v>
       </c>
       <c r="N3" t="n">
-        <v>586.1693570278061</v>
+        <v>586.1693570278064</v>
       </c>
       <c r="O3" t="n">
-        <v>536.2304442012073</v>
+        <v>536.2304442012077</v>
       </c>
       <c r="P3" t="n">
-        <v>430.3722063825127</v>
+        <v>430.372206382513</v>
       </c>
       <c r="Q3" t="n">
-        <v>287.6924225861695</v>
+        <v>287.6924225861698</v>
       </c>
       <c r="R3" t="n">
-        <v>139.9317596938502</v>
+        <v>139.9317596938503</v>
       </c>
       <c r="S3" t="n">
-        <v>41.86288515848086</v>
+        <v>41.86288515848089</v>
       </c>
       <c r="T3" t="n">
-        <v>9.084295504284279</v>
+        <v>9.084295504284286</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1482746817891886</v>
+        <v>0.1482746817891887</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.889489387608675</v>
+        <v>1.889489387608676</v>
       </c>
       <c r="H4" t="n">
-        <v>16.79927837346623</v>
+        <v>16.79927837346625</v>
       </c>
       <c r="I4" t="n">
-        <v>56.82209903826818</v>
+        <v>56.82209903826822</v>
       </c>
       <c r="J4" t="n">
-        <v>133.5868997039333</v>
+        <v>133.5868997039334</v>
       </c>
       <c r="K4" t="n">
-        <v>219.524312487626</v>
+        <v>219.5243124876262</v>
       </c>
       <c r="L4" t="n">
-        <v>280.9155404086571</v>
+        <v>280.9155404086573</v>
       </c>
       <c r="M4" t="n">
-        <v>296.1860500957853</v>
+        <v>296.1860500957855</v>
       </c>
       <c r="N4" t="n">
-        <v>289.1434078328805</v>
+        <v>289.1434078328807</v>
       </c>
       <c r="O4" t="n">
-        <v>267.0707363503608</v>
+        <v>267.070736350361</v>
       </c>
       <c r="P4" t="n">
-        <v>228.5251528431437</v>
+        <v>228.5251528431438</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.2189704478501</v>
+        <v>158.2189704478502</v>
       </c>
       <c r="R4" t="n">
-        <v>84.95831373738642</v>
+        <v>84.95831373738648</v>
       </c>
       <c r="S4" t="n">
-        <v>32.9286468731439</v>
+        <v>32.92864687314393</v>
       </c>
       <c r="T4" t="n">
-        <v>8.073272837964337</v>
+        <v>8.073272837964343</v>
       </c>
       <c r="U4" t="n">
         <v>0.1030630575059279</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>357.9244589488886</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>167.4835451665588</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>461.1007071927452</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,25 +33734,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33974,19 +33974,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>176.4671532934933</v>
+        <v>176.4671532934935</v>
       </c>
       <c r="K2" t="n">
-        <v>315.7295469278162</v>
+        <v>315.7295469278166</v>
       </c>
       <c r="L2" t="n">
-        <v>428.9649286074791</v>
+        <v>428.9649286074795</v>
       </c>
       <c r="M2" t="n">
-        <v>509.2954665205008</v>
+        <v>509.2954665205012</v>
       </c>
       <c r="N2" t="n">
-        <v>522.1968121246914</v>
+        <v>522.1968121246919</v>
       </c>
       <c r="O2" t="n">
-        <v>479.6256810751072</v>
+        <v>479.6256810751077</v>
       </c>
       <c r="P2" t="n">
-        <v>374.499926448169</v>
+        <v>374.4999264481693</v>
       </c>
       <c r="Q2" t="n">
-        <v>232.5745083338176</v>
+        <v>232.5745083338179</v>
       </c>
       <c r="R2" t="n">
-        <v>49.01487890242458</v>
+        <v>49.01487890242475</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86.09470136139402</v>
+        <v>86.09470136139413</v>
       </c>
       <c r="K3" t="n">
-        <v>226.0938249878113</v>
+        <v>361.1553585674062</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8014950183777</v>
+        <v>350.801495018378</v>
       </c>
       <c r="M3" t="n">
-        <v>428.9211905420763</v>
+        <v>428.9211905420767</v>
       </c>
       <c r="N3" t="n">
-        <v>454.8276449444728</v>
+        <v>454.8276449444731</v>
       </c>
       <c r="O3" t="n">
-        <v>393.6341997567629</v>
+        <v>393.6341997567632</v>
       </c>
       <c r="P3" t="n">
-        <v>296.3977989681824</v>
+        <v>296.3977989681827</v>
       </c>
       <c r="Q3" t="n">
-        <v>282.7721820797449</v>
+        <v>147.7106485001482</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.22771958726057</v>
+        <v>40.22771958726065</v>
       </c>
       <c r="K4" t="n">
-        <v>197.2548206617432</v>
+        <v>197.2548206617433</v>
       </c>
       <c r="L4" t="n">
-        <v>308.5055656689732</v>
+        <v>308.5055656689734</v>
       </c>
       <c r="M4" t="n">
-        <v>335.7699270576259</v>
+        <v>335.7699270576261</v>
       </c>
       <c r="N4" t="n">
-        <v>333.275580212109</v>
+        <v>333.2755802121093</v>
       </c>
       <c r="O4" t="n">
-        <v>291.6558642644005</v>
+        <v>291.6558642644007</v>
       </c>
       <c r="P4" t="n">
-        <v>225.8037121080372</v>
+        <v>225.8037121080373</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.05692719615571</v>
+        <v>72.0569271961558</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>226.5827468655553</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>25.34951124454049</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37622,19 +37622,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
